--- a/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario7-Chaithanyaprod-TR2-LATE-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -593,8 +593,8 @@
       <c r="E3" s="7">
         <v>3001.33</v>
       </c>
-      <c r="F3" s="7">
-        <v>1158.9100000000001</v>
+      <c r="F3" s="3">
+        <v>968.39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2861</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2859</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
